--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_03.09.2024_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="H2" t="n">
+        <v>48.36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.9299999999999997</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.96</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>247.39</v>
+        <v>1191.2</v>
       </c>
       <c r="H3" t="n">
-        <v>246.9</v>
+        <v>1197.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4899999999999807</v>
+        <v>-6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>247.39</v>
+        <v>11.997</v>
       </c>
       <c r="H4" t="n">
-        <v>246.9</v>
+        <v>11.965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4899999999999807</v>
+        <v>0.03200000000000003</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -613,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>247.2</v>
+        <v>125.03</v>
       </c>
       <c r="H5" t="n">
-        <v>248.2</v>
+        <v>124.47</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>0.5600000000000023</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -631,16 +639,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>247.16</v>
+        <v>104.4</v>
       </c>
       <c r="H6" t="n">
-        <v>247.04</v>
+        <v>106.44</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1200000000000045</v>
+        <v>-2.039999999999992</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.05</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>125.03</v>
+        <v>6200</v>
       </c>
       <c r="H7" t="n">
-        <v>124.47</v>
+        <v>6190</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5600000000000023</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>0.45</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -705,16 +715,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -723,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>123.95</v>
+        <v>41.34</v>
       </c>
       <c r="H8" t="n">
-        <v>123.4</v>
+        <v>41.45</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5499999999999972</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.44</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -761,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6200</v>
+        <v>195.92</v>
       </c>
       <c r="H9" t="n">
-        <v>6190</v>
+        <v>194.45</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>1.469999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.16</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10">
@@ -779,13 +791,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>long</t>
@@ -797,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6175.5</v>
+        <v>193.19</v>
       </c>
       <c r="H10" t="n">
-        <v>6179</v>
+        <v>194.45</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>1.259999999999991</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
@@ -815,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MRKP</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -826,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -835,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>466.75</v>
+        <v>0.2717</v>
       </c>
       <c r="H11" t="n">
-        <v>467.7</v>
+        <v>0.2768</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.9499999999999886</v>
+        <v>0.005099999999999993</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.2</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="12">
@@ -853,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -864,7 +878,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -873,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>465</v>
+        <v>114.91</v>
       </c>
       <c r="H12" t="n">
-        <v>468.25</v>
+        <v>113.62</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>1.289999999999992</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="13">
@@ -891,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -911,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>195.92</v>
+        <v>128.88</v>
       </c>
       <c r="H13" t="n">
-        <v>194.45</v>
+        <v>130.02</v>
       </c>
       <c r="I13" t="n">
-        <v>1.469999999999999</v>
+        <v>-1.140000000000015</v>
       </c>
       <c r="J13" t="n">
-        <v>0.75</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="14">
@@ -929,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -940,7 +954,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -949,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>193.19</v>
+        <v>970</v>
       </c>
       <c r="H14" t="n">
-        <v>194.45</v>
+        <v>968</v>
       </c>
       <c r="I14" t="n">
-        <v>1.259999999999991</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.65</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="15">
@@ -967,16 +981,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -985,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>192.73</v>
+        <v>466.75</v>
       </c>
       <c r="H15" t="n">
-        <v>192.31</v>
+        <v>467.7</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4199999999999875</v>
+        <v>-0.9499999999999886</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.22</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="16">
@@ -1003,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1014,7 +1030,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1023,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>970</v>
+        <v>465</v>
       </c>
       <c r="H16" t="n">
-        <v>968</v>
+        <v>468.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
-        <v>0.21</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1041,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1061,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>11.997</v>
+        <v>247.39</v>
       </c>
       <c r="H17" t="n">
-        <v>11.965</v>
+        <v>246.9</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03200000000000003</v>
+        <v>0.4899999999999807</v>
       </c>
       <c r="J17" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -1079,13 +1095,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>short</t>
@@ -1097,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>12.01</v>
+        <v>247.2</v>
       </c>
       <c r="H18" t="n">
-        <v>12.071</v>
+        <v>248.2</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.06099999999999994</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.51</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="19">
@@ -1115,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1135,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>104.4</v>
+        <v>47.55</v>
       </c>
       <c r="H19" t="n">
-        <v>106.44</v>
+        <v>47.26</v>
       </c>
       <c r="I19" t="n">
-        <v>-2.039999999999992</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.95</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="20">
@@ -1153,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1173,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>128.88</v>
+        <v>649.75</v>
       </c>
       <c r="H20" t="n">
-        <v>130.02</v>
+        <v>650.8</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.140000000000015</v>
+        <v>-1.049999999999955</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.88</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="21">
@@ -1191,13 +1209,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>long</t>
@@ -1209,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>128.72</v>
+        <v>648.4</v>
       </c>
       <c r="H21" t="n">
-        <v>127.76</v>
+        <v>651.3</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.9599999999999937</v>
+        <v>2.899999999999977</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.75</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22">
@@ -1227,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1247,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>41.34</v>
+        <v>139.3</v>
       </c>
       <c r="H22" t="n">
-        <v>41.45</v>
+        <v>139.3</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1099999999999994</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1265,13 +1285,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>long</t>
@@ -1283,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>40.925</v>
+        <v>138.76</v>
       </c>
       <c r="H23" t="n">
-        <v>40.76</v>
+        <v>139</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1649999999999991</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.4</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="24">
@@ -1301,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1321,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1191.2</v>
+        <v>88.22</v>
       </c>
       <c r="H24" t="n">
-        <v>1197.2</v>
+        <v>87.08</v>
       </c>
       <c r="I24" t="n">
-        <v>-6</v>
+        <v>1.140000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.5</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="25">
@@ -1339,16 +1361,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1357,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1190</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1165.4</v>
+        <v>87.81</v>
       </c>
       <c r="I25" t="n">
-        <v>-24.59999999999991</v>
+        <v>0.4500000000000028</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.07</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="26">
@@ -1375,18 +1399,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1395,16 +1417,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>47.43</v>
+        <v>15.166</v>
       </c>
       <c r="H26" t="n">
-        <v>48.36</v>
+        <v>15.113</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.9299999999999997</v>
+        <v>-0.05300000000000082</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.96</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="27">
@@ -1413,18 +1435,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1433,16 +1453,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>88.22</v>
+        <v>1190</v>
       </c>
       <c r="H27" t="n">
-        <v>87.08</v>
+        <v>1165.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.140000000000001</v>
+        <v>-24.59999999999991</v>
       </c>
       <c r="J27" t="n">
-        <v>1.29</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="28">
@@ -1451,15 +1471,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>short</t>
@@ -1471,16 +1489,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>88.26000000000001</v>
+        <v>12.01</v>
       </c>
       <c r="H28" t="n">
-        <v>87.81</v>
+        <v>12.071</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4500000000000028</v>
+        <v>-0.06099999999999994</v>
       </c>
       <c r="J28" t="n">
-        <v>0.51</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="29">
@@ -1489,7 +1507,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1507,16 +1525,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>87.12</v>
+        <v>123.95</v>
       </c>
       <c r="H29" t="n">
-        <v>87.29000000000001</v>
+        <v>123.4</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1700000000000017</v>
+        <v>-0.5499999999999972</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="30">
@@ -1525,18 +1543,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1545,16 +1561,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>47.55</v>
+        <v>6175.5</v>
       </c>
       <c r="H30" t="n">
-        <v>47.26</v>
+        <v>6179</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2899999999999991</v>
+        <v>3.5</v>
       </c>
       <c r="J30" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
@@ -1563,7 +1579,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1581,16 +1597,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>47.26</v>
+        <v>40.925</v>
       </c>
       <c r="H31" t="n">
-        <v>46.8</v>
+        <v>40.76</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.4600000000000009</v>
+        <v>-0.1649999999999991</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.97</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="32">
@@ -1599,18 +1615,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1619,16 +1633,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>139.3</v>
+        <v>192.73</v>
       </c>
       <c r="H32" t="n">
-        <v>139.3</v>
+        <v>192.31</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.4199999999999875</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="33">
@@ -1637,15 +1651,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>long</t>
@@ -1657,16 +1669,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>138.76</v>
+        <v>112.61</v>
       </c>
       <c r="H33" t="n">
-        <v>139</v>
+        <v>112.6</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2400000000000091</v>
+        <v>-0.01000000000000512</v>
       </c>
       <c r="J33" t="n">
-        <v>0.17</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="34">
@@ -1675,15 +1687,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>long</t>
@@ -1695,16 +1705,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.2717</v>
+        <v>128.72</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2768</v>
+        <v>127.76</v>
       </c>
       <c r="I34" t="n">
-        <v>0.005099999999999993</v>
+        <v>-0.9599999999999937</v>
       </c>
       <c r="J34" t="n">
-        <v>1.88</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="35">
@@ -1713,7 +1723,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1731,16 +1741,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>15.166</v>
+        <v>247.16</v>
       </c>
       <c r="H35" t="n">
-        <v>15.113</v>
+        <v>247.04</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.05300000000000082</v>
+        <v>-0.1200000000000045</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.35</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="36">
@@ -1749,18 +1759,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1769,16 +1777,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>649.75</v>
+        <v>47.26</v>
       </c>
       <c r="H36" t="n">
-        <v>650.8</v>
+        <v>46.8</v>
       </c>
       <c r="I36" t="n">
-        <v>-1.049999999999955</v>
+        <v>-0.4600000000000009</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.16</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="37">
@@ -1793,9 +1801,7 @@
       <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>long</t>
@@ -1807,16 +1813,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>648.4</v>
+        <v>646.75</v>
       </c>
       <c r="H37" t="n">
-        <v>651.3</v>
+        <v>646.65</v>
       </c>
       <c r="I37" t="n">
-        <v>2.899999999999977</v>
+        <v>-0.1000000000000227</v>
       </c>
       <c r="J37" t="n">
-        <v>0.45</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="38">
@@ -1825,7 +1831,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1843,90 +1849,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>646.75</v>
+        <v>87.12</v>
       </c>
       <c r="H38" t="n">
-        <v>646.65</v>
+        <v>87.29000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.1000000000000227</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>114.91</v>
-      </c>
-      <c r="H39" t="n">
-        <v>113.62</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.289999999999992</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>112.61</v>
-      </c>
-      <c r="H40" t="n">
-        <v>112.6</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-0.01000000000000512</v>
-      </c>
-      <c r="J40" t="n">
-        <v>-0.01</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +1872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2049,133 +1981,133 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6300000000000239</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.210000000000008</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.25</v>
+        <v>0.17</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.279999999999987</v>
+        <v>-0.1700000000000017</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6399999999999935</v>
+        <v>-0.08500000000000085</v>
       </c>
       <c r="E6" t="n">
-        <v>1.11</v>
+        <v>-0.36</v>
       </c>
       <c r="F6" t="n">
-        <v>0.55</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-30.59999999999991</v>
+        <v>-1.120000000000005</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-15.29999999999995</v>
+        <v>-0.5600000000000023</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.57</v>
+        <v>-0.45</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.28</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02899999999999991</v>
+        <v>2.300000000000011</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01449999999999996</v>
+        <v>1.150000000000006</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.24</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.12</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01000000000000512</v>
+        <v>-2.100000000000009</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005000000000002558</v>
+        <v>-1.050000000000004</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009999999999999953</v>
+        <v>-1.63</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.5</v>
+        <v>1.279999999999987</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>6.75</v>
+        <v>0.6399999999999935</v>
       </c>
       <c r="E10" t="n">
-        <v>0.22</v>
+        <v>1.11</v>
       </c>
       <c r="F10" t="n">
-        <v>0.11</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="11">
@@ -2203,133 +2135,133 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2400000000000091</v>
+        <v>13.5</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1200000000000045</v>
+        <v>6.75</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.100000000000009</v>
+        <v>0.01000000000000512</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.050000000000004</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.63</v>
+        <v>0.009999999999999953</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1700000000000017</v>
+        <v>-0.02899999999999991</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.08500000000000085</v>
+        <v>-0.01449999999999996</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.36</v>
+        <v>-0.24</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.300000000000011</v>
+        <v>-30.59999999999991</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.150000000000006</v>
+        <v>-15.29999999999995</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>-2.57</v>
       </c>
       <c r="F15" t="n">
-        <v>0.25</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>MRKP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4899999999999807</v>
+        <v>0.005099999999999993</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4899999999999807</v>
+        <v>0.005099999999999993</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>1.88</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.05300000000000082</v>
+        <v>-0.9299999999999997</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.05300000000000082</v>
+        <v>-0.9299999999999997</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.35</v>
+        <v>-1.96</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.35</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="18">
@@ -2357,86 +2289,68 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.9299999999999997</v>
+        <v>-2.039999999999992</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9299999999999997</v>
+        <v>-2.039999999999992</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.96</v>
+        <v>-1.95</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.96</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005099999999999993</v>
+        <v>0.4899999999999807</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.005099999999999993</v>
+        <v>0.4899999999999807</v>
       </c>
       <c r="E20" t="n">
-        <v>1.88</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-2.039999999999992</v>
+        <v>-0.05300000000000082</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>-2.039999999999992</v>
+        <v>-0.05300000000000082</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.95</v>
+        <v>-0.35</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.95</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+        <v>-0.35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
